--- a/validation_stage_1/Testbatterie_FRAG_Rel&Val_TranslatedEN.xlsx
+++ b/validation_stage_1/Testbatterie_FRAG_Rel&Val_TranslatedEN.xlsx
@@ -1,42 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29101"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_9285C363FAE096C5B7341F76A64C1F6244A3FFE4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+  <si>
+    <t>Frage_ID</t>
+  </si>
   <si>
     <t>Domain</t>
   </si>
   <si>
-    <t>Complexity Level</t>
+    <t xml:space="preserve">Complexity Level</t>
   </si>
   <si>
     <t>Aspect</t>
@@ -45,189 +33,300 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Course Design</t>
+    <t>F01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Design</t>
   </si>
   <si>
     <t>Basic</t>
   </si>
   <si>
-    <t>Learning Objectives</t>
-  </si>
-  <si>
-    <t>What is a learning objective in higher education?</t>
+    <t xml:space="preserve">Learning Objectives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a learning objective in higher education?</t>
+  </si>
+  <si>
+    <t>F02</t>
   </si>
   <si>
     <t>Intermediate</t>
   </si>
   <si>
-    <t>How can I formulate learning objectives based on Bloom and integrate them into a course design?</t>
+    <t xml:space="preserve">How can I formulate learning objectives based on Bloom and integrate them into a course design?</t>
+  </si>
+  <si>
+    <t>F03</t>
   </si>
   <si>
     <t>Advanced</t>
   </si>
   <si>
-    <t>I am planning a block seminar on AI fundamentals for students from various disciplines. How can I define learning objectives that are relevant and assessable for all?</t>
-  </si>
-  <si>
-    <t>Competency Orientation</t>
-  </si>
-  <si>
-    <t>What is meant by competency-oriented teaching?</t>
-  </si>
-  <si>
-    <t>How do I translate competency goals into specific teaching activities?</t>
-  </si>
-  <si>
-    <t>I want to assess not only knowledge but also communication skills in my master's seminar on science communication. How can I develop a competency-based course design for this?</t>
+    <t xml:space="preserve">I am planning a block seminar on AI fundamentals for students from various disciplines. How can I define learning objectives that are relevant and assessable for all?</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competency Orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is meant by competency-oriented teaching?</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I translate competency goals into specific teaching activities?</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to assess not only knowledge but also communication skills in my master's seminar on science communication. How can I develop a competency-based course design for this?</t>
+  </si>
+  <si>
+    <t>F07</t>
   </si>
   <si>
     <t>Curriculum</t>
   </si>
   <si>
-    <t>What is a module handbook and what is it used for?</t>
-  </si>
-  <si>
-    <t>How do I develop a module that covers different learning objectives?</t>
-  </si>
-  <si>
-    <t>I am developing a new module for a Data Literacy program. How can I design it so that it logically fits into the existing curriculum?</t>
-  </si>
-  <si>
-    <t>Course Delivery (AVIVA)</t>
-  </si>
-  <si>
-    <t>AVIVA Model</t>
-  </si>
-  <si>
-    <t>What does the AVIVA model in higher education didactics stand for?</t>
-  </si>
-  <si>
-    <t>How can I implement the AVIVA phases in a seminar session?</t>
-  </si>
-  <si>
-    <t>I am preparing a three-hour online session on teaching and learning theories. How can I meaningfully apply the AVIVA phases in this session?</t>
+    <t xml:space="preserve">What is a module handbook and what is it used for?</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I develop a module that covers different learning objectives?</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am developing a new module for a Data Literacy program. How can I design it so that it logically fits into the existing curriculum?</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Delivery (AVIVA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIVA Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does the AVIVA model in higher education didactics stand for?</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I implement the AVIVA phases in a seminar session?</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am preparing a three-hour online session on teaching and learning theories. How can I meaningfully apply the AVIVA phases in this session?</t>
+  </si>
+  <si>
+    <t>F13</t>
   </si>
   <si>
     <t>Activation</t>
   </si>
   <si>
-    <t>What is an interactive teaching method?</t>
-  </si>
-  <si>
-    <t>How can I motivate students to actively participate?</t>
-  </si>
-  <si>
-    <t>In my compulsory seminar, students are very passive. How can I use activating methods to increase motivation in a 90-minute session?</t>
-  </si>
-  <si>
-    <t>Group Work</t>
-  </si>
-  <si>
-    <t>What are the benefits of group work in higher education?</t>
-  </si>
-  <si>
-    <t>How do I plan effective group work in a seminar session?</t>
-  </si>
-  <si>
-    <t>I am planning semester-long group work in a project course. How can I manage and support productive group processes?</t>
-  </si>
-  <si>
-    <t>Assessment Design</t>
-  </si>
-  <si>
-    <t>Assessment Formats</t>
-  </si>
-  <si>
-    <t>What assessment formats exist in higher education?</t>
-  </si>
-  <si>
-    <t>How do I choose an appropriate assessment format that matches my learning objectives?</t>
-  </si>
-  <si>
-    <t>I teach an online module on the introduction to empirical social research. How can I combine term paper, MC test, and project presentation in a meaningful final assessment?</t>
-  </si>
-  <si>
-    <t>Multiple-Choice Questions</t>
-  </si>
-  <si>
-    <t>What are typical characteristics of good multiple-choice questions?</t>
-  </si>
-  <si>
-    <t>How do I design multiple-choice questions that test higher taxonomy levels?</t>
-  </si>
-  <si>
-    <t>I want to assess not only knowledge but also interpretation and application in my statistics exam. How can I construct suitable multiple-choice questions?</t>
-  </si>
-  <si>
-    <t>Assessment Transparency</t>
-  </si>
-  <si>
-    <t>What does transparency in assessment mean in higher education?</t>
-  </si>
-  <si>
-    <t>How can I make assessment criteria understandable and transparent for students?</t>
-  </si>
-  <si>
-    <t>I supervise seminar papers with presentations. How can I develop a transparent grading scheme that fairly reflects both components?</t>
-  </si>
-  <si>
-    <t>Course Evaluation</t>
-  </si>
-  <si>
-    <t>Purpose of Evaluation</t>
-  </si>
-  <si>
-    <t>What is the purpose of course evaluation?</t>
-  </si>
-  <si>
-    <t>How can I use feedback specifically to improve my teaching?</t>
-  </si>
-  <si>
-    <t>I want to improve an elective module after the first delivery. How should I design the evaluation to identify strengths and weaknesses?</t>
-  </si>
-  <si>
-    <t>Evaluation Methods</t>
-  </si>
-  <si>
-    <t>What are the methods of course evaluation?</t>
-  </si>
-  <si>
-    <t>How do I choose appropriate evaluation methods for my course?</t>
-  </si>
-  <si>
-    <t>I want to evaluate my academic writing exercise during the semester. Which methods are suitable for formative and practical evaluation?</t>
-  </si>
-  <si>
-    <t>Feedback Culture</t>
-  </si>
-  <si>
-    <t>What is constructive feedback?</t>
-  </si>
-  <si>
-    <t>How can I foster an open feedback culture in the seminar?</t>
-  </si>
-  <si>
-    <t>I lead a master's colloquium where little feedback comes from students. How can I establish a feedback culture that supports sustainable learning?</t>
+    <t xml:space="preserve">What is an interactive teaching method?</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I motivate students to actively participate?</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In my compulsory seminar, students are very passive. How can I use activating methods to increase motivation in a 90-minute session?</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the benefits of group work in higher education?</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I plan effective group work in a seminar session?</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am planning semester-long group work in a project course. How can I manage and support productive group processes?</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment Formats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What assessment formats exist in higher education?</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I choose an appropriate assessment format that matches my learning objectives?</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I teach an online module on the introduction to empirical social research. How can I combine term paper, MC test, and project presentation in a meaningful final assessment?</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple-Choice Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are typical characteristics of good multiple-choice questions?</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I design multiple-choice questions that test higher taxonomy levels?</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to assess not only knowledge but also interpretation and application in my statistics exam. How can I construct suitable multiple-choice questions?</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment Transparency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does transparency in assessment mean in higher education?</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I make assessment criteria understandable and transparent for students?</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I supervise seminar papers with presentations. How can I develop a transparent grading scheme that fairly reflects both components?</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose of Evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of course evaluation?</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I use feedback specifically to improve my teaching?</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to improve an elective module after the first delivery. How should I design the evaluation to identify strengths and weaknesses?</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the methods of course evaluation?</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I choose appropriate evaluation methods for my course?</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to evaluate my academic writing exercise during the semester. Which methods are suitable for formative and practical evaluation?</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedback Culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is constructive feedback?</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I foster an open feedback culture in the seminar?</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I lead a master's colloquium where little feedback comes from students. How can I establish a feedback culture that supports sustainable learning?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -241,11 +340,11 @@
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -260,23 +359,29 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -288,10 +393,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -329,18 +434,18 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -363,19 +468,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -398,10 +502,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -573,545 +676,879 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme 2007 - 2010">
+  <a:themeElements>
+    <a:clrScheme name="Office 2007 - 2010">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office 2007 - 2010">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office 2007 - 2010">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>33</v>
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>33</v>
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>33</v>
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>33</v>
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>33</v>
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>46</v>
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>46</v>
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>46</v>
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>46</v>
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>46</v>
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>46</v>
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>46</v>
+        <v>83</v>
+      </c>
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>46</v>
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>46</v>
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="50615fac-c831-47c8-92da-bf53d409300e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1251,9 +1688,7 @@
         <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
         <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
           <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
+            <xsd:documentation>This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.</xsd:documentation>
           </xsd:annotation>
         </xsd:element>
         <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1332,22 +1767,50 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="50615fac-c831-47c8-92da-bf53d409300e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9714C97B-0937-4A97-B961-F20176EAE1F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0DE7D13-0299-40AA-A6A2-44F3AB5045E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B78BBD82-3513-4E2C-8361-7F90D48B29AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B78BBD82-3513-4E2C-8361-7F90D48B29AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="50615fac-c831-47c8-92da-bf53d409300e"/>
+    <ds:schemaRef ds:uri="878db335-089c-4217-99fe-47fc359c87c6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0DE7D13-0299-40AA-A6A2-44F3AB5045E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9714C97B-0937-4A97-B961-F20176EAE1F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="50615fac-c831-47c8-92da-bf53d409300e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>